--- a/lowe/edd/data/LAKEHWS.xlsx
+++ b/lowe/edd/data/LAKEHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1340,14 +1340,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH47"/>
+  <dimension ref="A1:JI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1357,12 +1357,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1372,14 +1372,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1387,12 +1387,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2207,11 +2207,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3014,8 +3017,11 @@
       <c r="JH9" s="11">
         <v>29650</v>
       </c>
+      <c r="JI9" s="11">
+        <v>29260</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3816,10 +3822,13 @@
         <v>27160</v>
       </c>
       <c r="JH10" s="11">
-        <v>27570</v>
+        <v>27580</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>27440</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4620,10 +4629,13 @@
         <v>2170</v>
       </c>
       <c r="JH11" s="11">
-        <v>2080</v>
+        <v>2070</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>1820</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5426,8 +5438,11 @@
       <c r="JH12" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>6.2E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6230,8 +6245,11 @@
       <c r="JH13" s="11">
         <v>17420</v>
       </c>
+      <c r="JI13" s="11">
+        <v>16980</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7034,8 +7052,11 @@
       <c r="JH14" s="11">
         <v>1530</v>
       </c>
+      <c r="JI14" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7838,8 +7859,11 @@
       <c r="JH15" s="11">
         <v>15890</v>
       </c>
+      <c r="JI15" s="11">
+        <v>15880</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8642,8 +8666,11 @@
       <c r="JH16" s="11">
         <v>12020</v>
       </c>
+      <c r="JI16" s="11">
+        <v>11920</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9446,8 +9473,11 @@
       <c r="JH17" s="11">
         <v>1300</v>
       </c>
+      <c r="JI17" s="11">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10250,8 +10280,11 @@
       <c r="JH18" s="11">
         <v>960</v>
       </c>
+      <c r="JI18" s="11">
+        <v>940</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11054,8 +11087,11 @@
       <c r="JH19" s="11">
         <v>350</v>
       </c>
+      <c r="JI19" s="11">
+        <v>350</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11858,8 +11894,11 @@
       <c r="JH20" s="11">
         <v>80</v>
       </c>
+      <c r="JI20" s="11">
+        <v>80</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12662,8 +12701,11 @@
       <c r="JH21" s="11">
         <v>270</v>
       </c>
+      <c r="JI21" s="11">
+        <v>270</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13466,8 +13508,11 @@
       <c r="JH22" s="11">
         <v>14590</v>
       </c>
+      <c r="JI22" s="11">
+        <v>14590</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14270,8 +14315,11 @@
       <c r="JH23" s="11">
         <v>10710</v>
       </c>
+      <c r="JI23" s="11">
+        <v>10630</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15074,8 +15122,11 @@
       <c r="JH24" s="11">
         <v>3290</v>
       </c>
+      <c r="JI24" s="11">
+        <v>3280</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -15878,8 +15929,11 @@
       <c r="JH25" s="11">
         <v>90</v>
       </c>
+      <c r="JI25" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16682,8 +16736,11 @@
       <c r="JH26" s="11">
         <v>2360</v>
       </c>
+      <c r="JI26" s="11">
+        <v>2340</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17486,8 +17543,11 @@
       <c r="JH27" s="11">
         <v>840</v>
       </c>
+      <c r="JI27" s="11">
+        <v>840</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18290,8 +18350,11 @@
       <c r="JH28" s="11">
         <v>90</v>
       </c>
+      <c r="JI28" s="11">
+        <v>90</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19094,8 +19157,11 @@
       <c r="JH29" s="11">
         <v>350</v>
       </c>
+      <c r="JI29" s="11">
+        <v>350</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -19898,8 +19964,11 @@
       <c r="JH30" s="11">
         <v>720</v>
       </c>
+      <c r="JI30" s="11">
+        <v>710</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20702,8 +20771,11 @@
       <c r="JH31" s="11">
         <v>4500</v>
       </c>
+      <c r="JI31" s="11">
+        <v>4480</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21506,8 +21578,11 @@
       <c r="JH32" s="11">
         <v>1240</v>
       </c>
+      <c r="JI32" s="11">
+        <v>1220</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22310,8 +22385,11 @@
       <c r="JH33" s="11">
         <v>520</v>
       </c>
+      <c r="JI33" s="11">
+        <v>520</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23114,8 +23192,11 @@
       <c r="JH34" s="11">
         <v>3870</v>
       </c>
+      <c r="JI34" s="11">
+        <v>3960</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -23918,8 +23999,11 @@
       <c r="JH35" s="11">
         <v>200</v>
       </c>
+      <c r="JI35" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -24722,8 +24806,11 @@
       <c r="JH36" s="11">
         <v>3670</v>
       </c>
+      <c r="JI36" s="11">
+        <v>3760</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -25526,8 +25613,11 @@
       <c r="JH37" s="11">
         <v>210</v>
       </c>
+      <c r="JI37" s="11">
+        <v>210</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -26330,8 +26420,11 @@
       <c r="JH38" s="11">
         <v>3460</v>
       </c>
+      <c r="JI38" s="11">
+        <v>3550</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>99</v>
       </c>
@@ -26344,7 +26437,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>15</v>
       </c>
@@ -26357,7 +26450,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>100</v>
       </c>
@@ -26370,7 +26463,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>101</v>
       </c>
@@ -26383,7 +26476,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>102</v>
       </c>
@@ -26396,7 +26489,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>103</v>
       </c>
@@ -26409,7 +26502,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>104</v>
       </c>
@@ -26422,7 +26515,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>105</v>
       </c>

--- a/lowe/edd/data/LAKEHWS.xlsx
+++ b/lowe/edd/data/LAKEHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI47"/>
+  <dimension ref="A1:JJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,12 +1357,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1372,14 +1372,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1387,12 +1387,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2210,11 +2210,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3020,8 +3023,11 @@
       <c r="JI9" s="11">
         <v>29260</v>
       </c>
+      <c r="JJ9" s="11">
+        <v>28800</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3827,8 +3833,11 @@
       <c r="JI10" s="11">
         <v>27440</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>27010</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4634,8 +4643,11 @@
       <c r="JI11" s="11">
         <v>1820</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>1790</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5441,8 +5453,11 @@
       <c r="JI12" s="12">
         <v>6.2E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>6.2E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6248,8 +6263,11 @@
       <c r="JI13" s="11">
         <v>16980</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>16610</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7055,8 +7073,11 @@
       <c r="JI14" s="11">
         <v>1100</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>790</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7862,8 +7883,11 @@
       <c r="JI15" s="11">
         <v>15880</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>15820</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8669,8 +8693,11 @@
       <c r="JI16" s="11">
         <v>11920</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>11820</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9476,8 +9503,11 @@
       <c r="JI17" s="11">
         <v>1290</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10283,8 +10313,11 @@
       <c r="JI18" s="11">
         <v>940</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>940</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11090,8 +11123,11 @@
       <c r="JI19" s="11">
         <v>350</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>350</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11897,8 +11933,11 @@
       <c r="JI20" s="11">
         <v>80</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>80</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12704,8 +12743,11 @@
       <c r="JI21" s="11">
         <v>270</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>280</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13511,8 +13553,11 @@
       <c r="JI22" s="11">
         <v>14590</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>14530</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14318,8 +14363,11 @@
       <c r="JI23" s="11">
         <v>10630</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>10530</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15125,8 +15173,11 @@
       <c r="JI24" s="11">
         <v>3280</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>3220</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -15932,8 +15983,11 @@
       <c r="JI25" s="11">
         <v>100</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16739,8 +16793,11 @@
       <c r="JI26" s="11">
         <v>2340</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>2340</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17546,8 +17603,11 @@
       <c r="JI27" s="11">
         <v>840</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>780</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18353,8 +18413,11 @@
       <c r="JI28" s="11">
         <v>90</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>80</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19160,8 +19223,11 @@
       <c r="JI29" s="11">
         <v>350</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>340</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -19967,8 +20033,11 @@
       <c r="JI30" s="11">
         <v>710</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20774,8 +20843,11 @@
       <c r="JI31" s="11">
         <v>4480</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>4480</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21581,8 +21653,11 @@
       <c r="JI32" s="11">
         <v>1220</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22388,8 +22463,11 @@
       <c r="JI33" s="11">
         <v>520</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>520</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23195,8 +23273,11 @@
       <c r="JI34" s="11">
         <v>3960</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -24002,8 +24083,11 @@
       <c r="JI35" s="11">
         <v>200</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -24809,8 +24893,11 @@
       <c r="JI36" s="11">
         <v>3760</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>3810</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -25616,8 +25703,11 @@
       <c r="JI37" s="11">
         <v>210</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>210</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -26423,8 +26513,11 @@
       <c r="JI38" s="11">
         <v>3550</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>99</v>
       </c>
@@ -26437,7 +26530,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>15</v>
       </c>
@@ -26450,7 +26543,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>100</v>
       </c>
@@ -26463,7 +26556,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>101</v>
       </c>
@@ -26476,7 +26569,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>102</v>
       </c>
@@ -26489,7 +26582,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>103</v>
       </c>
@@ -26502,7 +26595,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>104</v>
       </c>
@@ -26515,7 +26608,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>105</v>
       </c>

--- a/lowe/edd/data/LAKEHWS.xlsx
+++ b/lowe/edd/data/LAKEHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ47"/>
+  <dimension ref="A1:JL47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,12 +1357,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1372,14 +1372,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1387,12 +1387,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2213,11 +2213,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3024,10 +3030,16 @@
         <v>29260</v>
       </c>
       <c r="JJ9" s="11">
-        <v>28800</v>
+        <v>28790</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>28350</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>28270</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3836,8 +3848,14 @@
       <c r="JJ10" s="11">
         <v>27010</v>
       </c>
+      <c r="JK10" s="11">
+        <v>26690</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>26650</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4646,8 +4664,14 @@
       <c r="JJ11" s="11">
         <v>1790</v>
       </c>
+      <c r="JK11" s="11">
+        <v>1660</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>1620</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5456,8 +5480,14 @@
       <c r="JJ12" s="12">
         <v>6.2E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6266,8 +6296,14 @@
       <c r="JJ13" s="11">
         <v>16610</v>
       </c>
+      <c r="JK13" s="11">
+        <v>16190</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>16220</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7076,8 +7112,14 @@
       <c r="JJ14" s="11">
         <v>790</v>
       </c>
+      <c r="JK14" s="11">
+        <v>480</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>560</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7886,8 +7928,14 @@
       <c r="JJ15" s="11">
         <v>15820</v>
       </c>
+      <c r="JK15" s="11">
+        <v>15710</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>15660</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8696,8 +8744,14 @@
       <c r="JJ16" s="11">
         <v>11820</v>
       </c>
+      <c r="JK16" s="11">
+        <v>11670</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>11610</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9506,8 +9560,14 @@
       <c r="JJ17" s="11">
         <v>1290</v>
       </c>
+      <c r="JK17" s="11">
+        <v>1200</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>1180</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10316,8 +10376,14 @@
       <c r="JJ18" s="11">
         <v>940</v>
       </c>
+      <c r="JK18" s="11">
+        <v>860</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>840</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11126,8 +11192,14 @@
       <c r="JJ19" s="11">
         <v>350</v>
       </c>
+      <c r="JK19" s="11">
+        <v>350</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>340</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11936,8 +12008,14 @@
       <c r="JJ20" s="11">
         <v>80</v>
       </c>
+      <c r="JK20" s="11">
+        <v>80</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>80</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12746,8 +12824,14 @@
       <c r="JJ21" s="11">
         <v>280</v>
       </c>
+      <c r="JK21" s="11">
+        <v>280</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>270</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13556,8 +13640,14 @@
       <c r="JJ22" s="11">
         <v>14530</v>
       </c>
+      <c r="JK22" s="11">
+        <v>14510</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>14480</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14366,8 +14456,14 @@
       <c r="JJ23" s="11">
         <v>10530</v>
       </c>
+      <c r="JK23" s="11">
+        <v>10460</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>10430</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15176,8 +15272,14 @@
       <c r="JJ24" s="11">
         <v>3220</v>
       </c>
+      <c r="JK24" s="11">
+        <v>3200</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -15986,8 +16088,14 @@
       <c r="JJ25" s="11">
         <v>100</v>
       </c>
+      <c r="JK25" s="11">
+        <v>100</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16796,8 +16904,14 @@
       <c r="JJ26" s="11">
         <v>2340</v>
       </c>
+      <c r="JK26" s="11">
+        <v>2350</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>2340</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17606,8 +17720,14 @@
       <c r="JJ27" s="11">
         <v>780</v>
       </c>
+      <c r="JK27" s="11">
+        <v>760</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>770</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18416,8 +18536,14 @@
       <c r="JJ28" s="11">
         <v>80</v>
       </c>
+      <c r="JK28" s="11">
+        <v>80</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>80</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19226,8 +19352,14 @@
       <c r="JJ29" s="11">
         <v>340</v>
       </c>
+      <c r="JK29" s="11">
+        <v>320</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>320</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20036,8 +20168,14 @@
       <c r="JJ30" s="11">
         <v>700</v>
       </c>
+      <c r="JK30" s="11">
+        <v>700</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>680</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20846,8 +20984,14 @@
       <c r="JJ31" s="11">
         <v>4480</v>
       </c>
+      <c r="JK31" s="11">
+        <v>4470</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>4520</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21656,8 +21800,14 @@
       <c r="JJ32" s="11">
         <v>1200</v>
       </c>
+      <c r="JK32" s="11">
+        <v>1190</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>1120</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22466,8 +22616,14 @@
       <c r="JJ33" s="11">
         <v>520</v>
       </c>
+      <c r="JK33" s="11">
+        <v>510</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>510</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23276,8 +23432,14 @@
       <c r="JJ34" s="11">
         <v>4000</v>
       </c>
+      <c r="JK34" s="11">
+        <v>4040</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>4060</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -24086,8 +24248,14 @@
       <c r="JJ35" s="11">
         <v>200</v>
       </c>
+      <c r="JK35" s="11">
+        <v>190</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>180</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -24896,8 +25064,14 @@
       <c r="JJ36" s="11">
         <v>3810</v>
       </c>
+      <c r="JK36" s="11">
+        <v>3860</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>3880</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -25706,8 +25880,14 @@
       <c r="JJ37" s="11">
         <v>210</v>
       </c>
+      <c r="JK37" s="11">
+        <v>200</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -26516,8 +26696,14 @@
       <c r="JJ38" s="11">
         <v>3600</v>
       </c>
+      <c r="JK38" s="11">
+        <v>3660</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>3680</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>99</v>
       </c>
@@ -26530,7 +26716,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>15</v>
       </c>
@@ -26543,7 +26729,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>100</v>
       </c>
@@ -26556,7 +26742,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>101</v>
       </c>
@@ -26569,7 +26755,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>102</v>
       </c>
@@ -26582,7 +26768,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>103</v>
       </c>
@@ -26595,7 +26781,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>104</v>
       </c>
@@ -26608,7 +26794,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>105</v>
       </c>
